--- a/Task2/Results/GroupByPropertyID/SS.xlsx
+++ b/Task2/Results/GroupByPropertyID/SS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="107">
   <si>
     <t>Property_id</t>
   </si>
@@ -696,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L223"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,16 +757,16 @@
         <v>22</v>
       </c>
       <c r="G2">
-        <v>5118530.950000001</v>
+        <v>293631.3199999999</v>
       </c>
       <c r="H2">
-        <v>232660.4977272728</v>
+        <v>13346.87818181818</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>5118530.950000001</v>
+        <v>293631.3199999999</v>
       </c>
       <c r="H3">
-        <v>232660.4977272728</v>
+        <v>13346.87818181818</v>
       </c>
       <c r="I3">
         <v>52</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -830,16 +830,16 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>1534220.72</v>
+        <v>124723.53</v>
       </c>
       <c r="H4">
-        <v>255703.4533333333</v>
+        <v>17817.64714285714</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -868,19 +868,19 @@
         <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>1534220.72</v>
+        <v>124723.53</v>
       </c>
       <c r="H5">
-        <v>255703.4533333333</v>
+        <v>17817.64714285714</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -891,31 +891,31 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>42068</v>
+        <v>42019</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>1534220.72</v>
+        <v>189264.95</v>
       </c>
       <c r="H6">
-        <v>1534220.72</v>
+        <v>9961.31315789474</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -938,7 +938,7 @@
         <v>42019</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -947,16 +947,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>3135524.64</v>
+        <v>189264.95</v>
       </c>
       <c r="H7">
-        <v>165027.612631579</v>
+        <v>9961.31315789474</v>
       </c>
       <c r="I7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -967,34 +967,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>352</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>42019</v>
+        <v>42363</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="F8">
-        <v>19</v>
-      </c>
       <c r="G8">
-        <v>3135524.64</v>
+        <v>134547.19</v>
       </c>
       <c r="H8">
-        <v>165027.612631579</v>
+        <v>7914.540588235294</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -1014,7 +1014,7 @@
         <v>42363</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1023,16 +1023,16 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <v>1867295.91</v>
+        <v>134547.19</v>
       </c>
       <c r="H9">
-        <v>109840.9358823529</v>
+        <v>7914.540588235294</v>
       </c>
       <c r="I9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1043,34 +1043,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>546</v>
+        <v>637</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
       <c r="G10">
-        <v>1867295.91</v>
+        <v>182630.45</v>
       </c>
       <c r="H10">
-        <v>109840.9358823529</v>
+        <v>10146.13611111111</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="J10">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1081,34 +1081,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>561</v>
+        <v>652</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>42363</v>
+        <v>42364</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
-        <v>1867295.91</v>
+        <v>182630.45</v>
       </c>
       <c r="H11">
-        <v>1867295.91</v>
+        <v>10146.13611111111</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1119,31 +1119,31 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>42364</v>
+        <v>42020</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>18</v>
       </c>
       <c r="G12">
-        <v>2684264.29</v>
+        <v>170752.32</v>
       </c>
       <c r="H12">
-        <v>149125.7938888889</v>
+        <v>9486.24</v>
       </c>
       <c r="I12">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1157,34 +1157,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>42364</v>
+        <v>42020</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>18</v>
       </c>
       <c r="G13">
-        <v>2684264.29</v>
+        <v>170752.32</v>
       </c>
       <c r="H13">
-        <v>149125.7938888889</v>
+        <v>9486.24</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1195,34 +1195,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>738</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>42364</v>
+        <v>42133</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>2684264.29</v>
+        <v>51957.9</v>
       </c>
       <c r="H14">
-        <v>2684264.29</v>
+        <v>12989.475</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1233,34 +1233,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>893</v>
+        <v>974</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>42020</v>
+        <v>42133</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>2977497.82</v>
+        <v>51957.9</v>
       </c>
       <c r="H15">
-        <v>165416.5455555556</v>
+        <v>12989.475</v>
       </c>
       <c r="I15">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1271,34 +1271,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>898</v>
+        <v>1145</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>42020</v>
+        <v>42017</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>18</v>
       </c>
       <c r="G16">
-        <v>2977497.82</v>
+        <v>220458.92</v>
       </c>
       <c r="H16">
-        <v>165416.5455555556</v>
+        <v>12247.71777777778</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J16">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1309,34 +1309,34 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>1093</v>
+        <v>1149</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>42133</v>
+        <v>42017</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>727410.6</v>
+        <v>220458.92</v>
       </c>
       <c r="H17">
-        <v>181852.65</v>
+        <v>12247.71777777778</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1347,34 +1347,34 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>1094</v>
+        <v>1300</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>42133</v>
+        <v>42018</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>727410.6</v>
+        <v>219439.68</v>
       </c>
       <c r="H18">
-        <v>181852.65</v>
+        <v>12908.21647058824</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J18">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1385,34 +1385,34 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>42017</v>
+        <v>42018</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>3649820.94</v>
+        <v>219439.68</v>
       </c>
       <c r="H19">
-        <v>202767.83</v>
+        <v>12908.21647058824</v>
       </c>
       <c r="I19">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1423,34 +1423,34 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>1283</v>
+        <v>1471</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>42017</v>
+        <v>42303</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>3649820.94</v>
+        <v>137105.74</v>
       </c>
       <c r="H20">
-        <v>202767.83</v>
+        <v>10546.59538461538</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1461,31 +1461,31 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>1450</v>
+        <v>1479</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>42018</v>
+        <v>42303</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>3640647.78</v>
+        <v>137105.74</v>
       </c>
       <c r="H21">
-        <v>214155.7517647059</v>
+        <v>10546.59538461538</v>
       </c>
       <c r="I21">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1499,34 +1499,34 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>1453</v>
+        <v>1581</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>42018</v>
+        <v>42304</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>3640647.78</v>
+        <v>353505.18</v>
       </c>
       <c r="H22">
-        <v>214155.7517647059</v>
+        <v>11783.506</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>1640</v>
+        <v>1582</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1552,19 +1552,19 @@
         <v>24</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>1463051.7</v>
+        <v>353505.18</v>
       </c>
       <c r="H23">
-        <v>133004.7</v>
+        <v>11783.506</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1575,31 +1575,31 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>1650</v>
+        <v>1599</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G24">
-        <v>1463051.7</v>
+        <v>353505.18</v>
       </c>
       <c r="H24">
-        <v>133004.7</v>
+        <v>11783.506</v>
       </c>
       <c r="I24">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1613,13 +1613,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>1656</v>
+        <v>1600</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
@@ -1628,16 +1628,16 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G25">
-        <v>1463051.7</v>
+        <v>353505.18</v>
       </c>
       <c r="H25">
-        <v>731525.8500000001</v>
+        <v>11783.506</v>
       </c>
       <c r="I25">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1651,34 +1651,34 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>1763</v>
+        <v>1797</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>42304</v>
+        <v>42295</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>4428695.2</v>
+        <v>10568.87</v>
       </c>
       <c r="H26">
-        <v>170334.4307692308</v>
+        <v>2642.2175</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1689,34 +1689,34 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
-        <v>1764</v>
+        <v>1812</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>42304</v>
+        <v>42295</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>4428695.2</v>
+        <v>10568.87</v>
       </c>
       <c r="H27">
-        <v>170334.4307692308</v>
+        <v>2642.2175</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J27">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1727,31 +1727,31 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1">
-        <v>1785</v>
+        <v>1869</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>42304</v>
+        <v>42025</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F28">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>4428695.2</v>
+        <v>191085.3966666667</v>
       </c>
       <c r="H28">
-        <v>170334.4307692308</v>
+        <v>11942.83729166667</v>
       </c>
       <c r="I28">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1765,34 +1765,34 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
-        <v>1786</v>
+        <v>1870</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>42304</v>
+        <v>42025</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>4428695.2</v>
+        <v>191085.3966666667</v>
       </c>
       <c r="H29">
-        <v>170334.4307692308</v>
+        <v>11942.83729166667</v>
       </c>
       <c r="I29">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1803,34 +1803,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
-        <v>1797</v>
+        <v>2015</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>42304</v>
+        <v>42086</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>4428695.2</v>
+        <v>107947.34</v>
       </c>
       <c r="H30">
-        <v>1107173.8</v>
+        <v>11994.14888888889</v>
       </c>
       <c r="I30">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1841,31 +1841,31 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
-        <v>1798</v>
+        <v>2039</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>42304</v>
+        <v>42086</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>4428695.2</v>
+        <v>107947.34</v>
       </c>
       <c r="H31">
-        <v>1107173.8</v>
+        <v>11994.14888888889</v>
       </c>
       <c r="I31">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1879,34 +1879,34 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
-        <v>2003</v>
+        <v>2115</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>42295</v>
+        <v>42110</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>145773.26</v>
+        <v>21787.85</v>
       </c>
       <c r="H32">
-        <v>36443.315</v>
+        <v>7262.616666666666</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J32">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -1917,31 +1917,31 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
-        <v>2018</v>
+        <v>2183</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>42295</v>
+        <v>42111</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>145773.26</v>
+        <v>21787.85</v>
       </c>
       <c r="H33">
-        <v>36443.315</v>
+        <v>10893.925</v>
       </c>
       <c r="I33">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1955,31 +1955,31 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1">
-        <v>2083</v>
+        <v>2248</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>42025</v>
+        <v>42027</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>3202586.44</v>
+        <v>152655.9066666667</v>
       </c>
       <c r="H34">
-        <v>200161.6525</v>
+        <v>8979.759215686276</v>
       </c>
       <c r="I34">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1993,34 +1993,34 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
-        <v>2084</v>
+        <v>2254</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>42025</v>
+        <v>42027</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35">
-        <v>3202586.44</v>
+        <v>152655.9066666667</v>
       </c>
       <c r="H35">
-        <v>200161.6525</v>
+        <v>8979.759215686276</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2031,34 +2031,34 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
-        <v>2244</v>
+        <v>2428</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="2">
-        <v>42086</v>
+        <v>42028</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G36">
-        <v>1314473.47</v>
+        <v>369949.1733333332</v>
       </c>
       <c r="H36">
-        <v>146052.6077777777</v>
+        <v>9735.504561403506</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2069,34 +2069,34 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
-        <v>2269</v>
+        <v>2429</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>42086</v>
+        <v>42028</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>1314473.47</v>
+        <v>369949.1733333332</v>
       </c>
       <c r="H37">
-        <v>146052.6077777777</v>
+        <v>9735.504561403506</v>
       </c>
       <c r="I37">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2107,31 +2107,31 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
-        <v>2359</v>
+        <v>2440</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="2">
-        <v>42110</v>
+        <v>42028</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G38">
-        <v>305029.9</v>
+        <v>369949.1733333332</v>
       </c>
       <c r="H38">
-        <v>101676.6333333333</v>
+        <v>9735.504561403506</v>
       </c>
       <c r="I38">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2145,31 +2145,31 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1">
-        <v>2434</v>
+        <v>2441</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="2">
-        <v>42111</v>
+        <v>42028</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G39">
-        <v>305029.9</v>
+        <v>369949.1733333332</v>
       </c>
       <c r="H39">
-        <v>152514.95</v>
+        <v>9735.504561403506</v>
       </c>
       <c r="I39">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2183,34 +2183,34 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1">
-        <v>2507</v>
+        <v>2767</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G40">
-        <v>2706170.39</v>
+        <v>185434.2866666667</v>
       </c>
       <c r="H40">
-        <v>159186.4935294117</v>
+        <v>8830.204126984128</v>
       </c>
       <c r="I40">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2221,34 +2221,34 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1">
-        <v>2513</v>
+        <v>2772</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>42027</v>
+        <v>42029</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F41">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>2706170.39</v>
+        <v>185434.2866666667</v>
       </c>
       <c r="H41">
-        <v>159186.4935294117</v>
+        <v>8830.204126984128</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J41">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2259,34 +2259,34 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="1">
-        <v>2706</v>
+        <v>2940</v>
       </c>
       <c r="B42" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F42">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G42">
-        <v>6239772.660000002</v>
+        <v>59518.11</v>
       </c>
       <c r="H42">
-        <v>164204.5436842106</v>
+        <v>8502.587142857143</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2297,34 +2297,34 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="1">
-        <v>2707</v>
+        <v>2946</v>
       </c>
       <c r="B43" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F43">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G43">
-        <v>6239772.660000002</v>
+        <v>59518.11</v>
       </c>
       <c r="H43">
-        <v>164204.5436842106</v>
+        <v>8502.587142857143</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J43">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2335,37 +2335,37 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1">
-        <v>2718</v>
+        <v>3020</v>
       </c>
       <c r="B44" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="2">
-        <v>42028</v>
+        <v>42095</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F44">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G44">
-        <v>6239772.660000002</v>
+        <v>59518.11</v>
       </c>
       <c r="H44">
-        <v>164204.5436842106</v>
+        <v>8502.587142857143</v>
       </c>
       <c r="I44">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -2373,34 +2373,34 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1">
-        <v>2719</v>
+        <v>3034</v>
       </c>
       <c r="B45" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>42028</v>
+        <v>42096</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F45">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>6239772.660000002</v>
+        <v>59229.53999999999</v>
       </c>
       <c r="H45">
-        <v>164204.5436842106</v>
+        <v>9871.589999999998</v>
       </c>
       <c r="I45">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2411,34 +2411,34 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1">
-        <v>3089</v>
+        <v>3040</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="2">
-        <v>42029</v>
+        <v>42096</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F46">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>3123304.23</v>
+        <v>59229.53999999999</v>
       </c>
       <c r="H46">
-        <v>148728.7728571428</v>
+        <v>9871.589999999998</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J46">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2449,37 +2449,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="1">
-        <v>3094</v>
+        <v>3136</v>
       </c>
       <c r="B47" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="2">
-        <v>42029</v>
+        <v>42096</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G47">
-        <v>3123304.23</v>
+        <v>59229.53999999999</v>
       </c>
       <c r="H47">
-        <v>148728.7728571428</v>
+        <v>9871.589999999998</v>
       </c>
       <c r="I47">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L47">
         <v>0</v>
@@ -2487,34 +2487,34 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1">
-        <v>3284</v>
+        <v>3146</v>
       </c>
       <c r="B48" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="2">
-        <v>42095</v>
+        <v>42038</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G48">
-        <v>723852.85</v>
+        <v>178828.0466666667</v>
       </c>
       <c r="H48">
-        <v>103407.55</v>
+        <v>11176.75291666667</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2525,31 +2525,31 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>3290</v>
+        <v>3158</v>
       </c>
       <c r="B49" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="2">
-        <v>42095</v>
+        <v>42038</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G49">
-        <v>723852.85</v>
+        <v>178828.0466666667</v>
       </c>
       <c r="H49">
-        <v>103407.55</v>
+        <v>11176.75291666667</v>
       </c>
       <c r="I49">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2563,28 +2563,28 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>3377</v>
+        <v>3303</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" s="2">
-        <v>42095</v>
+        <v>42062</v>
       </c>
       <c r="D50" t="s">
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F50">
         <v>7</v>
       </c>
       <c r="G50">
-        <v>723852.85</v>
+        <v>38341.08</v>
       </c>
       <c r="H50">
-        <v>103407.55</v>
+        <v>5477.297142857143</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L50">
         <v>0</v>
@@ -2601,34 +2601,34 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>3393</v>
+        <v>3308</v>
       </c>
       <c r="B51" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="2">
-        <v>42096</v>
+        <v>42062</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51">
-        <v>721832.86</v>
+        <v>38341.08</v>
       </c>
       <c r="H51">
-        <v>120305.4766666667</v>
+        <v>5477.297142857143</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J51">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -2639,34 +2639,34 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>3399</v>
+        <v>3327</v>
       </c>
       <c r="B52" t="s">
         <v>11</v>
       </c>
       <c r="C52" s="2">
-        <v>42096</v>
+        <v>42062</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52">
-        <v>721832.86</v>
+        <v>38341.08</v>
       </c>
       <c r="H52">
-        <v>120305.4766666667</v>
+        <v>5477.297142857143</v>
       </c>
       <c r="I52">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -2677,37 +2677,37 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>3516</v>
+        <v>3450</v>
       </c>
       <c r="B53" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="2">
-        <v>42096</v>
+        <v>42081</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53">
-        <v>721832.86</v>
+        <v>114391.44</v>
       </c>
       <c r="H53">
-        <v>120305.4766666667</v>
+        <v>12710.16</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -2715,34 +2715,34 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>3526</v>
+        <v>3458</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="2">
-        <v>42038</v>
+        <v>42081</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F54">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G54">
-        <v>2319994.38</v>
+        <v>114391.44</v>
       </c>
       <c r="H54">
-        <v>144999.64875</v>
+        <v>12710.16</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2753,34 +2753,34 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>3538</v>
+        <v>3557</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" s="2">
-        <v>42038</v>
+        <v>42084</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G55">
-        <v>2319994.38</v>
+        <v>120217.35</v>
       </c>
       <c r="H55">
-        <v>144999.64875</v>
+        <v>15027.16875</v>
       </c>
       <c r="I55">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2791,37 +2791,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>3700</v>
+        <v>3584</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="2">
-        <v>42062</v>
+        <v>42084</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G56">
-        <v>744400.5</v>
+        <v>120217.35</v>
       </c>
       <c r="H56">
-        <v>106342.9285714286</v>
+        <v>15027.16875</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -2829,34 +2829,34 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>3705</v>
+        <v>3677</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
       </c>
       <c r="C57" s="2">
-        <v>42062</v>
+        <v>42091</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>744400.5</v>
+        <v>63796.91</v>
       </c>
       <c r="H57">
-        <v>106342.9285714286</v>
+        <v>7974.61375</v>
       </c>
       <c r="I57">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -2867,34 +2867,34 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="1">
-        <v>3724</v>
+        <v>3702</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="2">
-        <v>42062</v>
+        <v>42091</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>744400.5</v>
+        <v>63796.91</v>
       </c>
       <c r="H58">
-        <v>106342.9285714286</v>
+        <v>7974.61375</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J58">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -2905,34 +2905,34 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="1">
-        <v>3862</v>
+        <v>3778</v>
       </c>
       <c r="B59" t="s">
         <v>11</v>
       </c>
       <c r="C59" s="2">
-        <v>42081</v>
+        <v>42097</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F59">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G59">
-        <v>1598696.45</v>
+        <v>59429.53999999999</v>
       </c>
       <c r="H59">
-        <v>177632.9388888889</v>
+        <v>9904.923333333332</v>
       </c>
       <c r="I59">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -2943,34 +2943,34 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>3870</v>
+        <v>3784</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
       <c r="C60" s="2">
-        <v>42081</v>
+        <v>42097</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>1598696.45</v>
+        <v>59429.53999999999</v>
       </c>
       <c r="H60">
-        <v>177632.9388888889</v>
+        <v>9904.923333333332</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J60">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -2981,34 +2981,34 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>3985</v>
+        <v>3899</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="2">
-        <v>42084</v>
+        <v>42099</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>1371323.61</v>
+        <v>40295.93</v>
       </c>
       <c r="H61">
-        <v>171415.45125</v>
+        <v>8059.186</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3019,31 +3019,31 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>4014</v>
+        <v>3954</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" s="2">
-        <v>42084</v>
+        <v>42099</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>1371323.61</v>
+        <v>40295.93</v>
       </c>
       <c r="H62">
-        <v>171415.45125</v>
+        <v>8059.186</v>
       </c>
       <c r="I62">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3057,34 +3057,34 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>4112</v>
+        <v>4004</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="2">
-        <v>42091</v>
+        <v>42262</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>810305.85</v>
+        <v>61839.41</v>
       </c>
       <c r="H63">
-        <v>101288.23125</v>
+        <v>8834.201428571429</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3095,31 +3095,31 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>4138</v>
+        <v>4072</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" s="2">
-        <v>42091</v>
+        <v>42262</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G64">
-        <v>810305.85</v>
+        <v>61839.41</v>
       </c>
       <c r="H64">
-        <v>101288.23125</v>
+        <v>8834.201428571429</v>
       </c>
       <c r="I64">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3133,34 +3133,34 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="1">
-        <v>4233</v>
+        <v>4099</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="2">
-        <v>42097</v>
+        <v>42308</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G65">
-        <v>723832.86</v>
+        <v>166698.45</v>
       </c>
       <c r="H65">
-        <v>120638.81</v>
+        <v>11907.03214285714</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J65">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3171,34 +3171,34 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1">
-        <v>4239</v>
+        <v>4109</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="2">
-        <v>42097</v>
+        <v>42308</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G66">
-        <v>723832.86</v>
+        <v>166698.45</v>
       </c>
       <c r="H66">
-        <v>120638.81</v>
+        <v>11907.03214285714</v>
       </c>
       <c r="I66">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3209,34 +3209,34 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1">
-        <v>4374</v>
+        <v>4202</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="2">
-        <v>42099</v>
+        <v>42252</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="G67">
-        <v>589426.8200000001</v>
+        <v>50809.16</v>
       </c>
       <c r="H67">
-        <v>117885.364</v>
+        <v>10161.832</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3247,37 +3247,37 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1">
-        <v>4439</v>
+        <v>4215</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="2">
-        <v>42099</v>
+        <v>42252</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="G68">
-        <v>589426.8200000001</v>
+        <v>50809.16</v>
       </c>
       <c r="H68">
-        <v>117885.364</v>
+        <v>10161.832</v>
       </c>
       <c r="I68">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L68">
         <v>0</v>
@@ -3285,34 +3285,34 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1">
-        <v>4495</v>
+        <v>4314</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="2">
-        <v>42262</v>
+        <v>42318</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G69">
-        <v>1322746.75</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H69">
-        <v>188963.8214285714</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3323,34 +3323,34 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1">
-        <v>4565</v>
+        <v>4315</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
       <c r="C70" s="2">
-        <v>42262</v>
+        <v>42318</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G70">
-        <v>1322746.75</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H70">
-        <v>188963.8214285714</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I70">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3361,34 +3361,34 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1">
-        <v>4598</v>
+        <v>4542</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="2">
-        <v>42308</v>
+        <v>42319</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71">
-        <v>2295620.33</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H71">
-        <v>176586.1792307692</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I71">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3399,34 +3399,34 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1">
-        <v>4603</v>
+        <v>4543</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" s="2">
-        <v>42308</v>
+        <v>42319</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G72">
-        <v>2295620.33</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H72">
-        <v>2295620.33</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I72">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3437,34 +3437,34 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1">
-        <v>4608</v>
+        <v>4706</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
       </c>
       <c r="C73" s="2">
-        <v>42308</v>
+        <v>42319</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73">
-        <v>2295620.33</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H73">
-        <v>176586.1792307692</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J73">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3475,34 +3475,34 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1">
-        <v>4714</v>
+        <v>4707</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="2">
-        <v>42252</v>
+        <v>42319</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G74">
-        <v>1165043.4</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H74">
-        <v>166434.7714285714</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J74">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3513,37 +3513,37 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1">
-        <v>4727</v>
+        <v>4776</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="2">
-        <v>42252</v>
+        <v>42320</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>1165043.4</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H75">
-        <v>166434.7714285714</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -3551,34 +3551,34 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="1">
-        <v>4839</v>
+        <v>4777</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="2">
-        <v>42318</v>
+        <v>42320</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>1696901.08</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H76">
-        <v>169690.108</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3589,34 +3589,34 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1">
-        <v>4840</v>
+        <v>4890</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
       </c>
       <c r="C77" s="2">
-        <v>42318</v>
+        <v>42320</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77">
-        <v>1696901.08</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H77">
-        <v>169690.108</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J77">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3627,34 +3627,34 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="1">
-        <v>4919</v>
+        <v>4891</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="2">
-        <v>42318</v>
+        <v>42320</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G78">
-        <v>1696901.08</v>
+        <v>77763.88000000003</v>
       </c>
       <c r="H78">
-        <v>424225.27</v>
+        <v>6480.323333333336</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J78">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3665,34 +3665,34 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="1">
-        <v>4920</v>
+        <v>5009</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="2">
-        <v>42318</v>
+        <v>42324</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>1696901.08</v>
+        <v>50851.5</v>
       </c>
       <c r="H79">
-        <v>424225.27</v>
+        <v>6356.4375</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J79">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3703,34 +3703,34 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="1">
-        <v>5093</v>
+        <v>5014</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="2">
-        <v>42319</v>
+        <v>42324</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G80">
-        <v>1696901.08</v>
+        <v>50851.5</v>
       </c>
       <c r="H80">
-        <v>169690.108</v>
+        <v>6356.4375</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -3741,34 +3741,34 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1">
-        <v>5094</v>
+        <v>5140</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="2">
-        <v>42319</v>
+        <v>42325</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G81">
-        <v>1696901.08</v>
+        <v>32297.13</v>
       </c>
       <c r="H81">
-        <v>169690.108</v>
+        <v>4613.875714285714</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J81">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -3779,34 +3779,34 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1">
-        <v>5159</v>
+        <v>5146</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>42319</v>
+        <v>42325</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>1696901.08</v>
+        <v>32297.13</v>
       </c>
       <c r="H82">
-        <v>424225.27</v>
+        <v>4613.875714285714</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3817,37 +3817,37 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="1">
-        <v>5160</v>
+        <v>5246</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="2">
-        <v>42319</v>
+        <v>42325</v>
       </c>
       <c r="D83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>1696901.08</v>
+        <v>32297.13</v>
       </c>
       <c r="H83">
-        <v>424225.27</v>
+        <v>4613.875714285714</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -3855,31 +3855,31 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="1">
-        <v>5275</v>
+        <v>5298</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2">
-        <v>42319</v>
+        <v>42333</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G84">
-        <v>1696901.08</v>
+        <v>138843.1</v>
       </c>
       <c r="H84">
-        <v>169690.108</v>
+        <v>9917.364285714284</v>
       </c>
       <c r="I84">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -3893,31 +3893,31 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="1">
-        <v>5276</v>
+        <v>5299</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2">
-        <v>42319</v>
+        <v>42333</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G85">
-        <v>1696901.08</v>
+        <v>138843.1</v>
       </c>
       <c r="H85">
-        <v>169690.108</v>
+        <v>9917.364285714284</v>
       </c>
       <c r="I85">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -3931,34 +3931,34 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="1">
-        <v>5359</v>
+        <v>5526</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2">
-        <v>42320</v>
+        <v>42336</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>1696901.08</v>
+        <v>69421.54999999999</v>
       </c>
       <c r="H86">
-        <v>169690.108</v>
+        <v>9917.364285714284</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J86">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -3969,34 +3969,34 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="1">
-        <v>5360</v>
+        <v>5645</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2">
-        <v>42320</v>
+        <v>42049</v>
       </c>
       <c r="D87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G87">
-        <v>1696901.08</v>
+        <v>78432.00999999999</v>
       </c>
       <c r="H87">
-        <v>169690.108</v>
+        <v>5228.800666666666</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="J87">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4007,34 +4007,34 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="1">
-        <v>5409</v>
+        <v>5653</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="2">
-        <v>42320</v>
+        <v>42049</v>
       </c>
       <c r="D88" t="s">
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G88">
-        <v>1696901.08</v>
+        <v>78432.00999999999</v>
       </c>
       <c r="H88">
-        <v>424225.27</v>
+        <v>5228.800666666666</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4045,37 +4045,37 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="1">
-        <v>5410</v>
+        <v>5679</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2">
-        <v>42320</v>
+        <v>42049</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F89">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G89">
-        <v>1696901.08</v>
+        <v>78432.00999999999</v>
       </c>
       <c r="H89">
-        <v>424225.27</v>
+        <v>5228.800666666666</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -4083,34 +4083,34 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="1">
-        <v>5481</v>
+        <v>5804</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2">
-        <v>42320</v>
+        <v>42054</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G90">
-        <v>1696901.08</v>
+        <v>151464.3</v>
       </c>
       <c r="H90">
-        <v>169690.108</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I90">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4121,34 +4121,34 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="1">
-        <v>5482</v>
+        <v>5805</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2">
-        <v>42320</v>
+        <v>42054</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G91">
-        <v>1696901.08</v>
+        <v>151464.3</v>
       </c>
       <c r="H91">
-        <v>169690.108</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I91">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4159,37 +4159,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="1">
-        <v>5610</v>
+        <v>5848</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="2">
-        <v>42324</v>
+        <v>42054</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F92">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G92">
-        <v>1098652.84</v>
+        <v>151464.3</v>
       </c>
       <c r="H92">
-        <v>137331.605</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I92">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -4197,37 +4197,37 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="1">
-        <v>5616</v>
+        <v>5849</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="2">
-        <v>42324</v>
+        <v>42054</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F93">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G93">
-        <v>1098652.84</v>
+        <v>151464.3</v>
       </c>
       <c r="H93">
-        <v>137331.605</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -4235,31 +4235,31 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="1">
-        <v>5751</v>
+        <v>5856</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="2">
-        <v>42325</v>
+        <v>42054</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G94">
-        <v>731316.85</v>
+        <v>151464.3</v>
       </c>
       <c r="H94">
-        <v>104473.8357142857</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I94">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4273,34 +4273,34 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="1">
-        <v>5758</v>
+        <v>5857</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="2">
-        <v>42325</v>
+        <v>42054</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G95">
-        <v>731316.85</v>
+        <v>151464.3</v>
       </c>
       <c r="H95">
-        <v>104473.8357142857</v>
+        <v>4733.259374999999</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J95">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4311,37 +4311,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="1">
-        <v>5866</v>
+        <v>6122</v>
       </c>
       <c r="B96" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="2">
-        <v>42325</v>
+        <v>42007</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G96">
-        <v>731316.85</v>
+        <v>282405.01</v>
       </c>
       <c r="H96">
-        <v>104473.8357142857</v>
+        <v>12278.47869565217</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K96">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -4349,31 +4349,31 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="1">
-        <v>5920</v>
+        <v>6143</v>
       </c>
       <c r="B97" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="2">
-        <v>42333</v>
+        <v>42007</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G97">
-        <v>2278177.86</v>
+        <v>282405.01</v>
       </c>
       <c r="H97">
-        <v>162726.99</v>
+        <v>12278.47869565217</v>
       </c>
       <c r="I97">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -4387,34 +4387,34 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="1">
-        <v>5921</v>
+        <v>6288</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="2">
-        <v>42333</v>
+        <v>42009</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F98">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G98">
-        <v>2278177.86</v>
+        <v>271288.66</v>
       </c>
       <c r="H98">
-        <v>162726.99</v>
+        <v>12918.50761904762</v>
       </c>
       <c r="I98">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4425,31 +4425,31 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="1">
-        <v>6172</v>
+        <v>6299</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="2">
-        <v>42336</v>
+        <v>42009</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G99">
-        <v>1139088.93</v>
+        <v>271288.66</v>
       </c>
       <c r="H99">
-        <v>162726.99</v>
+        <v>12918.50761904762</v>
       </c>
       <c r="I99">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -4463,34 +4463,34 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="1">
-        <v>6302</v>
+        <v>6447</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="2">
-        <v>42049</v>
+        <v>42008</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F100">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G100">
-        <v>1082820.85</v>
+        <v>270269.42</v>
       </c>
       <c r="H100">
-        <v>67676.30312500001</v>
+        <v>13513.471</v>
       </c>
       <c r="I100">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4501,34 +4501,34 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="1">
-        <v>6310</v>
+        <v>6459</v>
       </c>
       <c r="B101" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="2">
-        <v>42049</v>
+        <v>42008</v>
       </c>
       <c r="D101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F101">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G101">
-        <v>1082820.85</v>
+        <v>270269.42</v>
       </c>
       <c r="H101">
-        <v>67676.30312500001</v>
+        <v>13513.471</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J101">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4539,37 +4539,37 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="1">
-        <v>6337</v>
+        <v>6603</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="2">
-        <v>42049</v>
+        <v>42279</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F102">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G102">
-        <v>1082820.85</v>
+        <v>58082</v>
       </c>
       <c r="H102">
-        <v>67676.30312500001</v>
+        <v>14520.5</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K102">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L102">
         <v>0</v>
@@ -4577,34 +4577,34 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="1">
-        <v>6490</v>
+        <v>6685</v>
       </c>
       <c r="B103" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="2">
-        <v>42054</v>
+        <v>42279</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F103">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G103">
-        <v>2305075.72</v>
+        <v>58082</v>
       </c>
       <c r="H103">
-        <v>72033.61625000001</v>
+        <v>14520.5</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J103">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4615,34 +4615,34 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="1">
-        <v>6491</v>
+        <v>6719</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="2">
-        <v>42054</v>
+        <v>42016</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F104">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G104">
-        <v>2305075.72</v>
+        <v>220225.17</v>
       </c>
       <c r="H104">
-        <v>72033.61625000001</v>
+        <v>12234.73166666667</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4653,37 +4653,37 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="1">
-        <v>6534</v>
+        <v>6733</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="2">
-        <v>42054</v>
+        <v>42016</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F105">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G105">
-        <v>2305075.72</v>
+        <v>220225.17</v>
       </c>
       <c r="H105">
-        <v>72033.61625000001</v>
+        <v>12234.73166666667</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L105">
         <v>0</v>
@@ -4691,37 +4691,37 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="1">
-        <v>6535</v>
+        <v>6853</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
       </c>
       <c r="C106" s="2">
-        <v>42054</v>
+        <v>42021</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F106">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G106">
-        <v>2305075.72</v>
+        <v>204416.4166666667</v>
       </c>
       <c r="H106">
-        <v>72033.61625000001</v>
+        <v>10758.75877192982</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -4729,34 +4729,34 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="1">
-        <v>6542</v>
+        <v>6857</v>
       </c>
       <c r="B107" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="2">
-        <v>42054</v>
+        <v>42021</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F107">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G107">
-        <v>2305075.72</v>
+        <v>204416.4166666667</v>
       </c>
       <c r="H107">
-        <v>72033.61625000001</v>
+        <v>10758.75877192982</v>
       </c>
       <c r="I107">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4767,34 +4767,34 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="1">
-        <v>6543</v>
+        <v>7010</v>
       </c>
       <c r="B108" t="s">
         <v>11</v>
       </c>
       <c r="C108" s="2">
-        <v>42054</v>
+        <v>42030</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F108">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G108">
-        <v>2305075.72</v>
+        <v>206497.3566666667</v>
       </c>
       <c r="H108">
-        <v>72033.61625000001</v>
+        <v>8978.145942028987</v>
       </c>
       <c r="I108">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4805,34 +4805,34 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="1">
-        <v>6852</v>
+        <v>7014</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="2">
-        <v>42007</v>
+        <v>42030</v>
       </c>
       <c r="D109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F109">
         <v>23</v>
       </c>
       <c r="G109">
-        <v>4972227.810000001</v>
+        <v>206497.3566666667</v>
       </c>
       <c r="H109">
-        <v>216183.817826087</v>
+        <v>8978.145942028987</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J109">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4843,34 +4843,34 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="1">
-        <v>6873</v>
+        <v>7160</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="2">
-        <v>42007</v>
+        <v>42035</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F110">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G110">
-        <v>4972227.810000001</v>
+        <v>168545.6466666667</v>
       </c>
       <c r="H110">
-        <v>216183.817826087</v>
+        <v>9363.647037037037</v>
       </c>
       <c r="I110">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4881,34 +4881,34 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="1">
-        <v>7038</v>
+        <v>7177</v>
       </c>
       <c r="B111" t="s">
         <v>11</v>
       </c>
       <c r="C111" s="2">
-        <v>42009</v>
+        <v>42035</v>
       </c>
       <c r="D111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F111">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G111">
-        <v>3656751.36</v>
+        <v>168545.6466666667</v>
       </c>
       <c r="H111">
-        <v>174131.0171428572</v>
+        <v>9363.647037037037</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J111">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4919,31 +4919,31 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="1">
-        <v>7050</v>
+        <v>7320</v>
       </c>
       <c r="B112" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2">
-        <v>42009</v>
+        <v>42344</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F112">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G112">
-        <v>3656751.36</v>
+        <v>23913</v>
       </c>
       <c r="H112">
-        <v>174131.0171428572</v>
+        <v>5978.25</v>
       </c>
       <c r="I112">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -4957,34 +4957,34 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="1">
-        <v>7213</v>
+        <v>7396</v>
       </c>
       <c r="B113" t="s">
         <v>11</v>
       </c>
       <c r="C113" s="2">
-        <v>42008</v>
+        <v>42344</v>
       </c>
       <c r="D113" t="s">
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F113">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G113">
-        <v>3647578.2</v>
+        <v>23913</v>
       </c>
       <c r="H113">
-        <v>182378.91</v>
+        <v>5978.25</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4995,31 +4995,31 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="1">
-        <v>7225</v>
+        <v>7416</v>
       </c>
       <c r="B114" t="s">
         <v>11</v>
       </c>
       <c r="C114" s="2">
-        <v>42008</v>
+        <v>42355</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="F114">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>3647578.2</v>
+        <v>89031.02</v>
       </c>
       <c r="H114">
-        <v>182378.91</v>
+        <v>12718.71714285714</v>
       </c>
       <c r="I114">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5033,34 +5033,34 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="1">
-        <v>7384</v>
+        <v>7435</v>
       </c>
       <c r="B115" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="2">
-        <v>42279</v>
+        <v>42355</v>
       </c>
       <c r="D115" t="s">
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G115">
-        <v>654226</v>
+        <v>89031.02</v>
       </c>
       <c r="H115">
-        <v>327113</v>
+        <v>12718.71714285714</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5071,31 +5071,31 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="1">
-        <v>7469</v>
+        <v>7516</v>
       </c>
       <c r="B116" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="2">
-        <v>42279</v>
+        <v>42362</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G116">
-        <v>654226</v>
+        <v>135006.19</v>
       </c>
       <c r="H116">
-        <v>327113</v>
+        <v>7941.540588235294</v>
       </c>
       <c r="I116">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -5109,34 +5109,34 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="1">
-        <v>7506</v>
+        <v>7533</v>
       </c>
       <c r="B117" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="2">
-        <v>42016</v>
+        <v>42362</v>
       </c>
       <c r="D117" t="s">
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F117">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117">
-        <v>3648652.19</v>
+        <v>135006.19</v>
       </c>
       <c r="H117">
-        <v>202702.8994444445</v>
+        <v>7941.540588235294</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5147,34 +5147,34 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="1">
-        <v>7520</v>
+        <v>7693</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
       </c>
       <c r="C118" s="2">
-        <v>42016</v>
+        <v>42297</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F118">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G118">
-        <v>3648652.19</v>
+        <v>67802.94</v>
       </c>
       <c r="H118">
-        <v>202702.8994444445</v>
+        <v>5650.245</v>
       </c>
       <c r="I118">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5185,34 +5185,34 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="1">
-        <v>7656</v>
+        <v>7694</v>
       </c>
       <c r="B119" t="s">
         <v>11</v>
       </c>
       <c r="C119" s="2">
-        <v>42021</v>
+        <v>42297</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F119">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G119">
-        <v>3489624.84</v>
+        <v>67802.94</v>
       </c>
       <c r="H119">
-        <v>183664.4652631579</v>
+        <v>5650.245</v>
       </c>
       <c r="I119">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5223,34 +5223,34 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="1">
-        <v>7660</v>
+        <v>7717</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" s="2">
-        <v>42021</v>
+        <v>42297</v>
       </c>
       <c r="D120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F120">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G120">
-        <v>3489624.84</v>
+        <v>67802.94</v>
       </c>
       <c r="H120">
-        <v>183664.4652631579</v>
+        <v>5650.245</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J120">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5261,34 +5261,34 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="1">
-        <v>7827</v>
+        <v>7718</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" s="2">
-        <v>42030</v>
+        <v>42297</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F121">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G121">
-        <v>3415091.21</v>
+        <v>67802.94</v>
       </c>
       <c r="H121">
-        <v>148482.2265217391</v>
+        <v>5650.245</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J121">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5299,31 +5299,31 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="1">
-        <v>7831</v>
+        <v>7875</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="2">
-        <v>42030</v>
+        <v>42174</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F122">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G122">
-        <v>3415091.21</v>
+        <v>30088.28</v>
       </c>
       <c r="H122">
-        <v>148482.2265217391</v>
+        <v>7522.07</v>
       </c>
       <c r="I122">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5337,34 +5337,34 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="1">
-        <v>7992</v>
+        <v>7947</v>
       </c>
       <c r="B123" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="2">
-        <v>42035</v>
+        <v>42264</v>
       </c>
       <c r="D123" t="s">
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F123">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G123">
-        <v>2319491.9</v>
+        <v>77797.37</v>
       </c>
       <c r="H123">
-        <v>128860.6611111111</v>
+        <v>9724.671249999999</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5375,31 +5375,31 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="1">
-        <v>8009</v>
+        <v>7977</v>
       </c>
       <c r="B124" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="2">
-        <v>42035</v>
+        <v>42264</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F124">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G124">
-        <v>2319491.9</v>
+        <v>77797.37</v>
       </c>
       <c r="H124">
-        <v>128860.6611111111</v>
+        <v>9724.671249999999</v>
       </c>
       <c r="I124">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5413,34 +5413,34 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="1">
-        <v>8165</v>
+        <v>8101</v>
       </c>
       <c r="B125" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="2">
-        <v>42344</v>
+        <v>42125</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G125">
-        <v>226107</v>
+        <v>52688.2</v>
       </c>
       <c r="H125">
-        <v>75369</v>
+        <v>8781.366666666667</v>
       </c>
       <c r="I125">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5451,34 +5451,34 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="1">
-        <v>8241</v>
+        <v>8102</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="2">
-        <v>42344</v>
+        <v>42125</v>
       </c>
       <c r="D126" t="s">
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G126">
-        <v>226107</v>
+        <v>52688.2</v>
       </c>
       <c r="H126">
-        <v>226107</v>
+        <v>8781.366666666667</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5489,34 +5489,34 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="1">
-        <v>8242</v>
+        <v>8321</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="2">
-        <v>42344</v>
+        <v>42157</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G127">
-        <v>226107</v>
+        <v>82275.17999999999</v>
       </c>
       <c r="H127">
-        <v>75369</v>
+        <v>13712.53</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5527,31 +5527,31 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="1">
-        <v>8263</v>
+        <v>8380</v>
       </c>
       <c r="B128" t="s">
         <v>11</v>
       </c>
       <c r="C128" s="2">
-        <v>42355</v>
+        <v>42157</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G128">
-        <v>941057.22</v>
+        <v>82275.17999999999</v>
       </c>
       <c r="H128">
-        <v>134436.7457142857</v>
+        <v>13712.53</v>
       </c>
       <c r="I128">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -5565,34 +5565,34 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="1">
-        <v>8283</v>
+        <v>8391</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
       <c r="C129" s="2">
-        <v>42355</v>
+        <v>42265</v>
       </c>
       <c r="D129" t="s">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <v>941057.22</v>
+        <v>77797.37</v>
       </c>
       <c r="H129">
-        <v>134436.7457142857</v>
+        <v>8644.152222222221</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5603,31 +5603,31 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="1">
-        <v>8372</v>
+        <v>8411</v>
       </c>
       <c r="B130" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="2">
-        <v>42362</v>
+        <v>42265</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F130">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G130">
-        <v>1872390.91</v>
+        <v>77797.37</v>
       </c>
       <c r="H130">
-        <v>104021.7172222222</v>
+        <v>8644.152222222221</v>
       </c>
       <c r="I130">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -5641,34 +5641,34 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="1">
-        <v>8389</v>
+        <v>8527</v>
       </c>
       <c r="B131" t="s">
         <v>11</v>
       </c>
       <c r="C131" s="2">
-        <v>42362</v>
+        <v>42108</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="F131">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G131">
-        <v>1872390.91</v>
+        <v>159671.4</v>
       </c>
       <c r="H131">
-        <v>104021.7172222222</v>
+        <v>13305.95</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J131">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5679,34 +5679,34 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="1">
-        <v>8405</v>
+        <v>8528</v>
       </c>
       <c r="B132" t="s">
         <v>11</v>
       </c>
       <c r="C132" s="2">
-        <v>42362</v>
+        <v>42108</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G132">
-        <v>1872390.91</v>
+        <v>159671.4</v>
       </c>
       <c r="H132">
-        <v>1872390.91</v>
+        <v>13305.95</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J132">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -5717,34 +5717,34 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="1">
-        <v>8568</v>
+        <v>8529</v>
       </c>
       <c r="B133" t="s">
         <v>11</v>
       </c>
       <c r="C133" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F133">
         <v>12</v>
       </c>
       <c r="G133">
-        <v>809048.9199999999</v>
+        <v>159671.4</v>
       </c>
       <c r="H133">
-        <v>67420.74333333333</v>
+        <v>13305.95</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J133">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5755,34 +5755,34 @@
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="1">
-        <v>8569</v>
+        <v>8530</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
       </c>
       <c r="C134" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F134">
         <v>12</v>
       </c>
       <c r="G134">
-        <v>809048.9199999999</v>
+        <v>159671.4</v>
       </c>
       <c r="H134">
-        <v>67420.74333333333</v>
+        <v>13305.95</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J134">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -5793,34 +5793,34 @@
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="1">
-        <v>8592</v>
+        <v>8575</v>
       </c>
       <c r="B135" t="s">
         <v>11</v>
       </c>
       <c r="C135" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F135">
         <v>12</v>
       </c>
       <c r="G135">
-        <v>809048.9199999999</v>
+        <v>159671.4</v>
       </c>
       <c r="H135">
-        <v>67420.74333333333</v>
+        <v>13305.95</v>
       </c>
       <c r="I135">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5831,34 +5831,34 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="1">
-        <v>8593</v>
+        <v>8576</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" s="2">
-        <v>42297</v>
+        <v>42108</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="F136">
         <v>12</v>
       </c>
       <c r="G136">
-        <v>809048.9199999999</v>
+        <v>159671.4</v>
       </c>
       <c r="H136">
-        <v>67420.74333333333</v>
+        <v>13305.95</v>
       </c>
       <c r="I136">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -5869,34 +5869,34 @@
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="1">
-        <v>8772</v>
+        <v>8577</v>
       </c>
       <c r="B137" t="s">
         <v>11</v>
       </c>
       <c r="C137" s="2">
-        <v>42174</v>
+        <v>42108</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G137">
-        <v>631853.88</v>
+        <v>159671.4</v>
       </c>
       <c r="H137">
-        <v>157963.47</v>
+        <v>13305.95</v>
       </c>
       <c r="I137">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -5907,34 +5907,34 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="1">
-        <v>8845</v>
+        <v>8578</v>
       </c>
       <c r="B138" t="s">
         <v>11</v>
       </c>
       <c r="C138" s="2">
-        <v>42264</v>
+        <v>42108</v>
       </c>
       <c r="D138" t="s">
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F138">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G138">
-        <v>1546158.19</v>
+        <v>159671.4</v>
       </c>
       <c r="H138">
-        <v>193269.77375</v>
+        <v>13305.95</v>
       </c>
       <c r="I138">
         <v>0</v>
       </c>
       <c r="J138">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -5945,31 +5945,31 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="1">
-        <v>8876</v>
+        <v>8799</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="2">
-        <v>42264</v>
+        <v>42109</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F139">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G139">
-        <v>1546158.19</v>
+        <v>87151.39999999999</v>
       </c>
       <c r="H139">
-        <v>193269.77375</v>
+        <v>7262.616666666666</v>
       </c>
       <c r="I139">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -5983,34 +5983,34 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="1">
-        <v>9003</v>
+        <v>8800</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
       </c>
       <c r="C140" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G140">
-        <v>736904.4999999999</v>
+        <v>87151.39999999999</v>
       </c>
       <c r="H140">
-        <v>122817.4166666666</v>
+        <v>7262.616666666666</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J140">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -6021,34 +6021,34 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="1">
-        <v>9004</v>
+        <v>8801</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="2">
-        <v>42125</v>
+        <v>42109</v>
       </c>
       <c r="D141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G141">
-        <v>736904.4999999999</v>
+        <v>87151.39999999999</v>
       </c>
       <c r="H141">
-        <v>122817.4166666666</v>
+        <v>7262.616666666666</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J141">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -6059,34 +6059,34 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="1">
-        <v>9245</v>
+        <v>8802</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="2">
-        <v>42157</v>
+        <v>42109</v>
       </c>
       <c r="D142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G142">
-        <v>898463.3600000001</v>
+        <v>87151.39999999999</v>
       </c>
       <c r="H142">
-        <v>898463.3600000001</v>
+        <v>7262.616666666666</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J142">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -6097,34 +6097,34 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="1">
-        <v>9246</v>
+        <v>9030</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
       </c>
       <c r="C143" s="2">
-        <v>42157</v>
+        <v>42203</v>
       </c>
       <c r="D143" t="s">
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G143">
-        <v>898463.3600000001</v>
+        <v>28257.01</v>
       </c>
       <c r="H143">
-        <v>179692.672</v>
+        <v>9419.003333333332</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6135,31 +6135,31 @@
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="1">
-        <v>9305</v>
+        <v>9031</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="2">
-        <v>42157</v>
+        <v>42203</v>
       </c>
       <c r="D144" t="s">
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G144">
-        <v>898463.3600000001</v>
+        <v>28257.01</v>
       </c>
       <c r="H144">
-        <v>179692.672</v>
+        <v>9419.003333333332</v>
       </c>
       <c r="I144">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -6173,34 +6173,34 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="1">
-        <v>9316</v>
+        <v>9119</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="2">
-        <v>42265</v>
+        <v>42195</v>
       </c>
       <c r="D145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>1546158.19</v>
+        <v>13814.29</v>
       </c>
       <c r="H145">
-        <v>171795.3544444444</v>
+        <v>6907.145</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J145">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6211,34 +6211,34 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="1">
-        <v>9336</v>
+        <v>9213</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
       </c>
       <c r="C146" s="2">
-        <v>42265</v>
+        <v>42299</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F146">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G146">
-        <v>1546158.19</v>
+        <v>221341.98</v>
       </c>
       <c r="H146">
-        <v>171795.3544444444</v>
+        <v>11067.099</v>
       </c>
       <c r="I146">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6249,34 +6249,34 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="1">
-        <v>9456</v>
+        <v>9214</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="2">
-        <v>42108</v>
+        <v>42299</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G147">
-        <v>1582719.6</v>
+        <v>221341.98</v>
       </c>
       <c r="H147">
-        <v>131893.3</v>
+        <v>11067.099</v>
       </c>
       <c r="I147">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -6287,31 +6287,31 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="1">
-        <v>9457</v>
+        <v>9217</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="2">
-        <v>42108</v>
+        <v>42299</v>
       </c>
       <c r="D148" t="s">
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G148">
-        <v>1582719.6</v>
+        <v>221341.98</v>
       </c>
       <c r="H148">
-        <v>131893.3</v>
+        <v>11067.099</v>
       </c>
       <c r="I148">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6325,31 +6325,31 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="1">
-        <v>9458</v>
+        <v>9218</v>
       </c>
       <c r="B149" t="s">
         <v>11</v>
       </c>
       <c r="C149" s="2">
-        <v>42108</v>
+        <v>42299</v>
       </c>
       <c r="D149" t="s">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G149">
-        <v>1582719.6</v>
+        <v>221341.98</v>
       </c>
       <c r="H149">
-        <v>131893.3</v>
+        <v>11067.099</v>
       </c>
       <c r="I149">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6363,34 +6363,34 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="1">
-        <v>9459</v>
+        <v>9442</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="2">
-        <v>42108</v>
+        <v>42300</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E150" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150">
-        <v>1582719.6</v>
+        <v>111014.99</v>
       </c>
       <c r="H150">
-        <v>131893.3</v>
+        <v>10092.27181818182</v>
       </c>
       <c r="I150">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6401,34 +6401,34 @@
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="1">
-        <v>9504</v>
+        <v>9444</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="2">
-        <v>42108</v>
+        <v>42300</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151">
-        <v>1582719.6</v>
+        <v>111014.99</v>
       </c>
       <c r="H151">
-        <v>131893.3</v>
+        <v>10092.27181818182</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J151">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6439,34 +6439,34 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="1">
-        <v>9505</v>
+        <v>9566</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="2">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G152">
-        <v>1582719.6</v>
+        <v>68700.5</v>
       </c>
       <c r="H152">
-        <v>131893.3</v>
+        <v>13740.1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J152">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6477,34 +6477,34 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="1">
-        <v>9506</v>
+        <v>9592</v>
       </c>
       <c r="B153" t="s">
         <v>11</v>
       </c>
       <c r="C153" s="2">
-        <v>42108</v>
+        <v>42114</v>
       </c>
       <c r="D153" t="s">
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G153">
-        <v>1582719.6</v>
+        <v>68700.5</v>
       </c>
       <c r="H153">
-        <v>131893.3</v>
+        <v>13740.1</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -6515,34 +6515,34 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="1">
-        <v>9507</v>
+        <v>9639</v>
       </c>
       <c r="B154" t="s">
         <v>11</v>
       </c>
       <c r="C154" s="2">
-        <v>42108</v>
+        <v>42127</v>
       </c>
       <c r="D154" t="s">
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G154">
-        <v>1582719.6</v>
+        <v>26344.1</v>
       </c>
       <c r="H154">
-        <v>131893.3</v>
+        <v>8781.366666666667</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -6553,34 +6553,34 @@
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="1">
-        <v>9744</v>
+        <v>9727</v>
       </c>
       <c r="B155" t="s">
         <v>11</v>
       </c>
       <c r="C155" s="2">
-        <v>42109</v>
+        <v>42128</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F155">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G155">
-        <v>1220119.6</v>
+        <v>26344.1</v>
       </c>
       <c r="H155">
-        <v>101676.6333333333</v>
+        <v>8781.366666666667</v>
       </c>
       <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
         <v>48</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -6591,34 +6591,34 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="1">
-        <v>9745</v>
+        <v>9799</v>
       </c>
       <c r="B156" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="2">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G156">
-        <v>1220119.6</v>
+        <v>60682.36</v>
       </c>
       <c r="H156">
-        <v>101676.6333333333</v>
+        <v>10113.72666666667</v>
       </c>
       <c r="I156">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6629,31 +6629,31 @@
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="1">
-        <v>9746</v>
+        <v>9800</v>
       </c>
       <c r="B157" t="s">
         <v>11</v>
       </c>
       <c r="C157" s="2">
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="D157" t="s">
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G157">
-        <v>1220119.6</v>
+        <v>60682.36</v>
       </c>
       <c r="H157">
-        <v>101676.6333333333</v>
+        <v>10113.72666666667</v>
       </c>
       <c r="I157">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -6667,31 +6667,31 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="1">
-        <v>9747</v>
+        <v>9907</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="2">
-        <v>42109</v>
+        <v>42170</v>
       </c>
       <c r="D158" t="s">
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G158">
-        <v>1220119.6</v>
+        <v>30088.28</v>
       </c>
       <c r="H158">
-        <v>101676.6333333333</v>
+        <v>7522.07</v>
       </c>
       <c r="I158">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6705,34 +6705,34 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" s="1">
-        <v>9995</v>
+        <v>9975</v>
       </c>
       <c r="B159" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="2">
-        <v>42203</v>
+        <v>42171</v>
       </c>
       <c r="D159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G159">
-        <v>239712.97</v>
+        <v>30088.28</v>
       </c>
       <c r="H159">
-        <v>79904.32333333333</v>
+        <v>7522.07</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J159">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6743,34 +6743,34 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" s="1">
-        <v>9996</v>
+        <v>10051</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="2">
-        <v>42203</v>
+        <v>42213</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="F160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G160">
-        <v>239712.97</v>
+        <v>59629.12</v>
       </c>
       <c r="H160">
-        <v>79904.32333333333</v>
+        <v>14907.28</v>
       </c>
       <c r="I160">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J160">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6781,34 +6781,34 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" s="1">
-        <v>10088</v>
+        <v>10052</v>
       </c>
       <c r="B161" t="s">
         <v>11</v>
       </c>
       <c r="C161" s="2">
-        <v>42195</v>
+        <v>42213</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G161">
-        <v>96700.03</v>
+        <v>59629.12</v>
       </c>
       <c r="H161">
-        <v>48350.015</v>
+        <v>14907.28</v>
       </c>
       <c r="I161">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -6819,34 +6819,34 @@
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="1">
-        <v>10186</v>
+        <v>10071</v>
       </c>
       <c r="B162" t="s">
         <v>11</v>
       </c>
       <c r="C162" s="2">
-        <v>42299</v>
+        <v>42213</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F162">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G162">
-        <v>2299382.4</v>
+        <v>59629.12</v>
       </c>
       <c r="H162">
-        <v>127743.4666666667</v>
+        <v>14907.28</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J162">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -6857,34 +6857,34 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="1">
-        <v>10187</v>
+        <v>10072</v>
       </c>
       <c r="B163" t="s">
         <v>11</v>
       </c>
       <c r="C163" s="2">
-        <v>42299</v>
+        <v>42213</v>
       </c>
       <c r="D163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F163">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G163">
-        <v>2299382.4</v>
+        <v>59629.12</v>
       </c>
       <c r="H163">
-        <v>127743.4666666667</v>
+        <v>14907.28</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J163">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -6895,34 +6895,34 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" s="1">
-        <v>10190</v>
+        <v>10214</v>
       </c>
       <c r="B164" t="s">
         <v>11</v>
       </c>
       <c r="C164" s="2">
-        <v>42299</v>
+        <v>42215</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E164" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F164">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G164">
-        <v>2299382.4</v>
+        <v>29814.56</v>
       </c>
       <c r="H164">
-        <v>127743.4666666667</v>
+        <v>9938.186666666666</v>
       </c>
       <c r="I164">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -6933,31 +6933,31 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" s="1">
-        <v>10191</v>
+        <v>10221</v>
       </c>
       <c r="B165" t="s">
         <v>11</v>
       </c>
       <c r="C165" s="2">
-        <v>42299</v>
+        <v>42215</v>
       </c>
       <c r="D165" t="s">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="F165">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G165">
-        <v>2299382.4</v>
+        <v>29814.56</v>
       </c>
       <c r="H165">
-        <v>127743.4666666667</v>
+        <v>9938.186666666666</v>
       </c>
       <c r="I165">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="J165">
         <v>0</v>
@@ -6971,37 +6971,37 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" s="1">
-        <v>10232</v>
+        <v>10285</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
       </c>
       <c r="C166" s="2">
-        <v>42299</v>
+        <v>42215</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G166">
-        <v>2299382.4</v>
+        <v>29814.56</v>
       </c>
       <c r="H166">
-        <v>1149691.2</v>
+        <v>9938.186666666666</v>
       </c>
       <c r="I166">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J166">
         <v>0</v>
       </c>
       <c r="K166">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L166">
         <v>0</v>
@@ -7009,34 +7009,34 @@
     </row>
     <row r="167" spans="1:12">
       <c r="A167" s="1">
-        <v>10233</v>
+        <v>10328</v>
       </c>
       <c r="B167" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="2">
-        <v>42299</v>
+        <v>42233</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G167">
-        <v>2299382.4</v>
+        <v>20748.15</v>
       </c>
       <c r="H167">
-        <v>1149691.2</v>
+        <v>6916.049999999999</v>
       </c>
       <c r="I167">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -7047,34 +7047,34 @@
     </row>
     <row r="168" spans="1:12">
       <c r="A168" s="1">
-        <v>10449</v>
+        <v>10345</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" s="2">
-        <v>42300</v>
+        <v>42233</v>
       </c>
       <c r="D168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F168">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G168">
-        <v>1151411.2</v>
+        <v>20748.15</v>
       </c>
       <c r="H168">
-        <v>127934.5777777778</v>
+        <v>6916.049999999999</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J168">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -7085,34 +7085,34 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" s="1">
-        <v>10451</v>
+        <v>10446</v>
       </c>
       <c r="B169" t="s">
         <v>11</v>
       </c>
       <c r="C169" s="2">
-        <v>42300</v>
+        <v>42234</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G169">
-        <v>1151411.2</v>
+        <v>20748.15</v>
       </c>
       <c r="H169">
-        <v>127934.5777777778</v>
+        <v>6916.049999999999</v>
       </c>
       <c r="I169">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -7123,31 +7123,31 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="1">
-        <v>10470</v>
+        <v>10459</v>
       </c>
       <c r="B170" t="s">
         <v>11</v>
       </c>
       <c r="C170" s="2">
-        <v>42300</v>
+        <v>42234</v>
       </c>
       <c r="D170" t="s">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G170">
-        <v>1151411.2</v>
+        <v>20748.15</v>
       </c>
       <c r="H170">
-        <v>575705.6000000001</v>
+        <v>6916.049999999999</v>
       </c>
       <c r="I170">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7161,34 +7161,34 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" s="1">
-        <v>10595</v>
+        <v>10568</v>
       </c>
       <c r="B171" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="2">
-        <v>42114</v>
+        <v>42235</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F171">
         <v>4</v>
       </c>
       <c r="G171">
-        <v>762799.96</v>
+        <v>20898.15</v>
       </c>
       <c r="H171">
-        <v>190699.99</v>
+        <v>5224.537499999999</v>
       </c>
       <c r="I171">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -7199,34 +7199,34 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="1">
-        <v>10621</v>
+        <v>10573</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
       </c>
       <c r="C172" s="2">
-        <v>42114</v>
+        <v>42235</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F172">
         <v>4</v>
       </c>
       <c r="G172">
-        <v>762799.96</v>
+        <v>20898.15</v>
       </c>
       <c r="H172">
-        <v>190699.99</v>
+        <v>5224.537499999999</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J172">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -7237,34 +7237,34 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" s="1">
-        <v>10631</v>
+        <v>10683</v>
       </c>
       <c r="B173" t="s">
         <v>11</v>
       </c>
       <c r="C173" s="2">
-        <v>42114</v>
+        <v>42243</v>
       </c>
       <c r="D173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G173">
-        <v>762799.96</v>
+        <v>89071.2</v>
       </c>
       <c r="H173">
-        <v>762799.96</v>
+        <v>14845.2</v>
       </c>
       <c r="I173">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J173">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -7275,34 +7275,34 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" s="1">
-        <v>10672</v>
+        <v>10689</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
       </c>
       <c r="C174" s="2">
-        <v>42127</v>
+        <v>42243</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G174">
-        <v>368452.25</v>
+        <v>89071.2</v>
       </c>
       <c r="H174">
-        <v>122817.4166666667</v>
+        <v>14845.2</v>
       </c>
       <c r="I174">
         <v>0</v>
       </c>
       <c r="J174">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -7313,34 +7313,34 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" s="1">
-        <v>10770</v>
+        <v>10807</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
       </c>
       <c r="C175" s="2">
-        <v>42128</v>
+        <v>42244</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G175">
-        <v>368452.25</v>
+        <v>68924.89999999999</v>
       </c>
       <c r="H175">
-        <v>122817.4166666667</v>
+        <v>13784.98</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -7351,34 +7351,34 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" s="1">
-        <v>10849</v>
+        <v>10837</v>
       </c>
       <c r="B176" t="s">
         <v>11</v>
       </c>
       <c r="C176" s="2">
-        <v>42144</v>
+        <v>42244</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F176">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G176">
-        <v>698610.4199999999</v>
+        <v>68924.89999999999</v>
       </c>
       <c r="H176">
-        <v>116435.07</v>
+        <v>13784.98</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J176">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -7389,34 +7389,34 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" s="1">
-        <v>10850</v>
+        <v>10934</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="2">
-        <v>42144</v>
+        <v>42245</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G177">
-        <v>698610.4199999999</v>
+        <v>58533.9</v>
       </c>
       <c r="H177">
-        <v>116435.07</v>
+        <v>19511.3</v>
       </c>
       <c r="I177">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -7427,31 +7427,31 @@
     </row>
     <row r="178" spans="1:12">
       <c r="A178" s="1">
-        <v>10963</v>
+        <v>10940</v>
       </c>
       <c r="B178" t="s">
         <v>11</v>
       </c>
       <c r="C178" s="2">
-        <v>42170</v>
+        <v>42245</v>
       </c>
       <c r="D178" t="s">
         <v>13</v>
       </c>
       <c r="E178" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G178">
-        <v>631853.88</v>
+        <v>58533.9</v>
       </c>
       <c r="H178">
-        <v>157963.47</v>
+        <v>19511.3</v>
       </c>
       <c r="I178">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -7465,34 +7465,34 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" s="1">
-        <v>11035</v>
+        <v>11029</v>
       </c>
       <c r="B179" t="s">
         <v>11</v>
       </c>
       <c r="C179" s="2">
-        <v>42171</v>
+        <v>42268</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F179">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G179">
-        <v>631853.88</v>
+        <v>77539.37</v>
       </c>
       <c r="H179">
-        <v>157963.47</v>
+        <v>11077.05285714286</v>
       </c>
       <c r="I179">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -7503,34 +7503,34 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" s="1">
-        <v>11115</v>
+        <v>11138</v>
       </c>
       <c r="B180" t="s">
         <v>11</v>
       </c>
       <c r="C180" s="2">
-        <v>42213</v>
+        <v>42270</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G180">
-        <v>627447.8</v>
+        <v>53928.07</v>
       </c>
       <c r="H180">
-        <v>156861.95</v>
+        <v>10785.614</v>
       </c>
       <c r="I180">
         <v>0</v>
       </c>
       <c r="J180">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -7541,34 +7541,34 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="1">
-        <v>11116</v>
+        <v>11266</v>
       </c>
       <c r="B181" t="s">
         <v>11</v>
       </c>
       <c r="C181" s="2">
-        <v>42213</v>
+        <v>42271</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G181">
-        <v>627447.8</v>
+        <v>53928.07</v>
       </c>
       <c r="H181">
-        <v>156861.95</v>
+        <v>10785.614</v>
       </c>
       <c r="I181">
         <v>0</v>
       </c>
       <c r="J181">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -7579,34 +7579,34 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" s="1">
-        <v>11135</v>
+        <v>11394</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
       </c>
       <c r="C182" s="2">
-        <v>42213</v>
+        <v>42272</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G182">
-        <v>627447.8</v>
+        <v>53928.07</v>
       </c>
       <c r="H182">
-        <v>156861.95</v>
+        <v>10785.614</v>
       </c>
       <c r="I182">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J182">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -7617,31 +7617,31 @@
     </row>
     <row r="183" spans="1:12">
       <c r="A183" s="1">
-        <v>11136</v>
+        <v>11534</v>
       </c>
       <c r="B183" t="s">
         <v>11</v>
       </c>
       <c r="C183" s="2">
-        <v>42213</v>
+        <v>42289</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
       </c>
       <c r="E183" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G183">
-        <v>627447.8</v>
+        <v>65858.72</v>
       </c>
       <c r="H183">
-        <v>156861.95</v>
+        <v>7317.635555555556</v>
       </c>
       <c r="I183">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7655,34 +7655,34 @@
     </row>
     <row r="184" spans="1:12">
       <c r="A184" s="1">
-        <v>11314</v>
+        <v>11543</v>
       </c>
       <c r="B184" t="s">
         <v>11</v>
       </c>
       <c r="C184" s="2">
-        <v>42215</v>
+        <v>42289</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G184">
-        <v>313723.9</v>
+        <v>65858.72</v>
       </c>
       <c r="H184">
-        <v>104574.6333333333</v>
+        <v>7317.635555555556</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7693,31 +7693,31 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" s="1">
-        <v>11321</v>
+        <v>11609</v>
       </c>
       <c r="B185" t="s">
         <v>11</v>
       </c>
       <c r="C185" s="2">
-        <v>42215</v>
+        <v>42290</v>
       </c>
       <c r="D185" t="s">
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G185">
-        <v>313723.9</v>
+        <v>65858.72</v>
       </c>
       <c r="H185">
-        <v>104574.6333333333</v>
+        <v>7317.635555555556</v>
       </c>
       <c r="I185">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -7731,37 +7731,37 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" s="1">
-        <v>11401</v>
+        <v>11618</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
       </c>
       <c r="C186" s="2">
-        <v>42215</v>
+        <v>42290</v>
       </c>
       <c r="D186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E186" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F186">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G186">
-        <v>313723.9</v>
+        <v>65858.72</v>
       </c>
       <c r="H186">
-        <v>104574.6333333333</v>
+        <v>7317.635555555556</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K186">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L186">
         <v>0</v>
@@ -7769,34 +7769,34 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="1">
-        <v>11449</v>
+        <v>11725</v>
       </c>
       <c r="B187" t="s">
         <v>11</v>
       </c>
       <c r="C187" s="2">
-        <v>42233</v>
+        <v>42298</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
       </c>
       <c r="E187" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G187">
-        <v>288143.1</v>
+        <v>115440.9</v>
       </c>
       <c r="H187">
-        <v>96047.70000000001</v>
+        <v>7215.056250000001</v>
       </c>
       <c r="I187">
         <v>0</v>
       </c>
       <c r="J187">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -7807,34 +7807,34 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" s="1">
-        <v>11466</v>
+        <v>11726</v>
       </c>
       <c r="B188" t="s">
         <v>11</v>
       </c>
       <c r="C188" s="2">
-        <v>42233</v>
+        <v>42298</v>
       </c>
       <c r="D188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E188" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G188">
-        <v>288143.1</v>
+        <v>115440.9</v>
       </c>
       <c r="H188">
-        <v>96047.70000000001</v>
+        <v>7215.056250000001</v>
       </c>
       <c r="I188">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -7845,34 +7845,34 @@
     </row>
     <row r="189" spans="1:12">
       <c r="A189" s="1">
-        <v>11578</v>
+        <v>11731</v>
       </c>
       <c r="B189" t="s">
         <v>11</v>
       </c>
       <c r="C189" s="2">
-        <v>42234</v>
+        <v>42298</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G189">
-        <v>288143.1</v>
+        <v>115440.9</v>
       </c>
       <c r="H189">
-        <v>96047.70000000001</v>
+        <v>7215.056250000001</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J189">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -7883,31 +7883,31 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="1">
-        <v>11591</v>
+        <v>11732</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="2">
-        <v>42234</v>
+        <v>42298</v>
       </c>
       <c r="D190" t="s">
         <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F190">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G190">
-        <v>288143.1</v>
+        <v>115440.9</v>
       </c>
       <c r="H190">
-        <v>96047.70000000001</v>
+        <v>7215.056250000001</v>
       </c>
       <c r="I190">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -7921,34 +7921,34 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" s="1">
-        <v>11709</v>
+        <v>11961</v>
       </c>
       <c r="B191" t="s">
         <v>11</v>
       </c>
       <c r="C191" s="2">
-        <v>42235</v>
+        <v>42301</v>
       </c>
       <c r="D191" t="s">
         <v>12</v>
       </c>
       <c r="E191" t="s">
+        <v>103</v>
+      </c>
+      <c r="F191">
         <v>22</v>
       </c>
-      <c r="F191">
-        <v>4</v>
-      </c>
       <c r="G191">
-        <v>289643.1</v>
+        <v>243369.98</v>
       </c>
       <c r="H191">
-        <v>72410.77500000001</v>
+        <v>11062.27181818182</v>
       </c>
       <c r="I191">
         <v>0</v>
       </c>
       <c r="J191">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="K191">
         <v>0</v>
@@ -7959,34 +7959,34 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" s="1">
-        <v>11714</v>
+        <v>11962</v>
       </c>
       <c r="B192" t="s">
         <v>11</v>
       </c>
       <c r="C192" s="2">
-        <v>42235</v>
+        <v>42301</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E192" t="s">
+        <v>104</v>
+      </c>
+      <c r="F192">
         <v>22</v>
       </c>
-      <c r="F192">
-        <v>4</v>
-      </c>
       <c r="G192">
-        <v>289643.1</v>
+        <v>243369.98</v>
       </c>
       <c r="H192">
-        <v>72410.77500000001</v>
+        <v>11062.27181818182</v>
       </c>
       <c r="I192">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K192">
         <v>0</v>
@@ -7997,31 +7997,31 @@
     </row>
     <row r="193" spans="1:12">
       <c r="A193" s="1">
-        <v>11837</v>
+        <v>11985</v>
       </c>
       <c r="B193" t="s">
         <v>11</v>
       </c>
       <c r="C193" s="2">
-        <v>42243</v>
+        <v>42301</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F193">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G193">
-        <v>1317078.7</v>
+        <v>243369.98</v>
       </c>
       <c r="H193">
-        <v>219513.1166666667</v>
+        <v>11062.27181818182</v>
       </c>
       <c r="I193">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -8035,34 +8035,34 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" s="1">
-        <v>11843</v>
+        <v>11986</v>
       </c>
       <c r="B194" t="s">
         <v>11</v>
       </c>
       <c r="C194" s="2">
-        <v>42243</v>
+        <v>42301</v>
       </c>
       <c r="D194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E194" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F194">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G194">
-        <v>1317078.7</v>
+        <v>243369.98</v>
       </c>
       <c r="H194">
-        <v>219513.1166666667</v>
+        <v>11062.27181818182</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J194">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="K194">
         <v>0</v>
@@ -8073,34 +8073,34 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" s="1">
-        <v>11966</v>
+        <v>12216</v>
       </c>
       <c r="B195" t="s">
         <v>11</v>
       </c>
       <c r="C195" s="2">
-        <v>42244</v>
+        <v>42302</v>
       </c>
       <c r="D195" t="s">
         <v>12</v>
       </c>
       <c r="E195" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="F195">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G195">
-        <v>1035030.5</v>
+        <v>121684.99</v>
       </c>
       <c r="H195">
-        <v>207006.1</v>
+        <v>10140.41583333333</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -8111,31 +8111,31 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" s="1">
-        <v>11996</v>
+        <v>12224</v>
       </c>
       <c r="B196" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="2">
-        <v>42244</v>
+        <v>42302</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
       </c>
       <c r="E196" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="F196">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G196">
-        <v>1035030.5</v>
+        <v>121684.99</v>
       </c>
       <c r="H196">
-        <v>207006.1</v>
+        <v>10140.41583333333</v>
       </c>
       <c r="I196">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -8149,34 +8149,34 @@
     </row>
     <row r="197" spans="1:12">
       <c r="A197" s="1">
-        <v>12100</v>
+        <v>12333</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
       </c>
       <c r="C197" s="2">
-        <v>42245</v>
+        <v>42309</v>
       </c>
       <c r="D197" t="s">
         <v>12</v>
       </c>
       <c r="E197" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G197">
-        <v>961843.5</v>
+        <v>223467.7</v>
       </c>
       <c r="H197">
-        <v>320614.5</v>
+        <v>12414.87222222222</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="K197">
         <v>0</v>
@@ -8187,34 +8187,34 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" s="1">
-        <v>12106</v>
+        <v>12334</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
       </c>
       <c r="C198" s="2">
-        <v>42245</v>
+        <v>42309</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E198" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F198">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G198">
-        <v>961843.5</v>
+        <v>223467.7</v>
       </c>
       <c r="H198">
-        <v>320614.5</v>
+        <v>12414.87222222222</v>
       </c>
       <c r="I198">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J198">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="K198">
         <v>0</v>
@@ -8225,34 +8225,34 @@
     </row>
     <row r="199" spans="1:12">
       <c r="A199" s="1">
-        <v>12200</v>
+        <v>12351</v>
       </c>
       <c r="B199" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="2">
-        <v>42268</v>
+        <v>42309</v>
       </c>
       <c r="D199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F199">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G199">
-        <v>1544868.19</v>
+        <v>223467.7</v>
       </c>
       <c r="H199">
-        <v>220695.4557142857</v>
+        <v>12414.87222222222</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J199">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="K199">
         <v>0</v>
@@ -8263,913 +8263,39 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="1">
-        <v>12318</v>
+        <v>12352</v>
       </c>
       <c r="B200" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="2">
-        <v>42270</v>
+        <v>42309</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F200">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G200">
-        <v>917556.29</v>
+        <v>223467.7</v>
       </c>
       <c r="H200">
-        <v>183511.258</v>
+        <v>12414.87222222222</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J200">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12">
-      <c r="A201" s="1">
-        <v>12458</v>
-      </c>
-      <c r="B201" t="s">
-        <v>11</v>
-      </c>
-      <c r="C201" s="2">
-        <v>42271</v>
-      </c>
-      <c r="D201" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" t="s">
-        <v>98</v>
-      </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-      <c r="G201">
-        <v>917556.29</v>
-      </c>
-      <c r="H201">
-        <v>183511.258</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>80</v>
-      </c>
-      <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12">
-      <c r="A202" s="1">
-        <v>12597</v>
-      </c>
-      <c r="B202" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" s="2">
-        <v>42272</v>
-      </c>
-      <c r="D202" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" t="s">
-        <v>98</v>
-      </c>
-      <c r="F202">
-        <v>5</v>
-      </c>
-      <c r="G202">
-        <v>917556.29</v>
-      </c>
-      <c r="H202">
-        <v>183511.258</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <v>77</v>
-      </c>
-      <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="1">
-        <v>12745</v>
-      </c>
-      <c r="B203" t="s">
-        <v>11</v>
-      </c>
-      <c r="C203" s="2">
-        <v>42289</v>
-      </c>
-      <c r="D203" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" t="s">
-        <v>99</v>
-      </c>
-      <c r="F203">
-        <v>10</v>
-      </c>
-      <c r="G203">
-        <v>523655.16</v>
-      </c>
-      <c r="H203">
-        <v>52365.516</v>
-      </c>
-      <c r="I203">
-        <v>23</v>
-      </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
-      <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12">
-      <c r="A204" s="1">
-        <v>12754</v>
-      </c>
-      <c r="B204" t="s">
-        <v>11</v>
-      </c>
-      <c r="C204" s="2">
-        <v>42289</v>
-      </c>
-      <c r="D204" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" t="s">
-        <v>99</v>
-      </c>
-      <c r="F204">
-        <v>10</v>
-      </c>
-      <c r="G204">
-        <v>523655.16</v>
-      </c>
-      <c r="H204">
-        <v>52365.516</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
-      </c>
-      <c r="J204">
-        <v>43</v>
-      </c>
-      <c r="K204">
-        <v>0</v>
-      </c>
-      <c r="L204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="A205" s="1">
-        <v>12823</v>
-      </c>
-      <c r="B205" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="2">
-        <v>42290</v>
-      </c>
-      <c r="D205" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205" t="s">
-        <v>100</v>
-      </c>
-      <c r="F205">
-        <v>10</v>
-      </c>
-      <c r="G205">
-        <v>523655.16</v>
-      </c>
-      <c r="H205">
-        <v>52365.516</v>
-      </c>
-      <c r="I205">
-        <v>32</v>
-      </c>
-      <c r="J205">
-        <v>0</v>
-      </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" s="1">
-        <v>12832</v>
-      </c>
-      <c r="B206" t="s">
-        <v>11</v>
-      </c>
-      <c r="C206" s="2">
-        <v>42290</v>
-      </c>
-      <c r="D206" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" t="s">
-        <v>100</v>
-      </c>
-      <c r="F206">
-        <v>10</v>
-      </c>
-      <c r="G206">
-        <v>523655.16</v>
-      </c>
-      <c r="H206">
-        <v>52365.516</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
-      <c r="J206">
-        <v>50</v>
-      </c>
-      <c r="K206">
-        <v>0</v>
-      </c>
-      <c r="L206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="A207" s="1">
-        <v>12944</v>
-      </c>
-      <c r="B207" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D207" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" t="s">
-        <v>101</v>
-      </c>
-      <c r="F207">
-        <v>16</v>
-      </c>
-      <c r="G207">
-        <v>1238451.6</v>
-      </c>
-      <c r="H207">
-        <v>77403.22500000001</v>
-      </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
-      <c r="J207">
-        <v>142</v>
-      </c>
-      <c r="K207">
-        <v>0</v>
-      </c>
-      <c r="L207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" s="1">
-        <v>12945</v>
-      </c>
-      <c r="B208" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D208" t="s">
-        <v>12</v>
-      </c>
-      <c r="E208" t="s">
-        <v>102</v>
-      </c>
-      <c r="F208">
-        <v>16</v>
-      </c>
-      <c r="G208">
-        <v>1238451.6</v>
-      </c>
-      <c r="H208">
-        <v>77403.22500000001</v>
-      </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
-      <c r="J208">
-        <v>142</v>
-      </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-      <c r="L208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" s="1">
-        <v>12950</v>
-      </c>
-      <c r="B209" t="s">
-        <v>11</v>
-      </c>
-      <c r="C209" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D209" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" t="s">
-        <v>101</v>
-      </c>
-      <c r="F209">
-        <v>16</v>
-      </c>
-      <c r="G209">
-        <v>1238451.6</v>
-      </c>
-      <c r="H209">
-        <v>77403.22500000001</v>
-      </c>
-      <c r="I209">
-        <v>80</v>
-      </c>
-      <c r="J209">
-        <v>0</v>
-      </c>
-      <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="L209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" s="1">
-        <v>12951</v>
-      </c>
-      <c r="B210" t="s">
-        <v>11</v>
-      </c>
-      <c r="C210" s="2">
-        <v>42298</v>
-      </c>
-      <c r="D210" t="s">
-        <v>13</v>
-      </c>
-      <c r="E210" t="s">
-        <v>102</v>
-      </c>
-      <c r="F210">
-        <v>16</v>
-      </c>
-      <c r="G210">
-        <v>1238451.6</v>
-      </c>
-      <c r="H210">
-        <v>77403.22500000001</v>
-      </c>
-      <c r="I210">
-        <v>80</v>
-      </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
-      <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="L210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12">
-      <c r="A211" s="1">
-        <v>13210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D211" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" t="s">
-        <v>103</v>
-      </c>
-      <c r="F211">
-        <v>18</v>
-      </c>
-      <c r="G211">
-        <v>2494322.4</v>
-      </c>
-      <c r="H211">
-        <v>138573.4666666667</v>
-      </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
-      <c r="J211">
-        <v>138</v>
-      </c>
-      <c r="K211">
-        <v>0</v>
-      </c>
-      <c r="L211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
-      <c r="A212" s="1">
-        <v>13211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D212" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" t="s">
-        <v>104</v>
-      </c>
-      <c r="F212">
-        <v>18</v>
-      </c>
-      <c r="G212">
-        <v>2494322.4</v>
-      </c>
-      <c r="H212">
-        <v>138573.4666666667</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
-      </c>
-      <c r="J212">
-        <v>138</v>
-      </c>
-      <c r="K212">
-        <v>0</v>
-      </c>
-      <c r="L212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
-      <c r="A213" s="1">
-        <v>13238</v>
-      </c>
-      <c r="B213" t="s">
-        <v>11</v>
-      </c>
-      <c r="C213" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D213" t="s">
-        <v>13</v>
-      </c>
-      <c r="E213" t="s">
-        <v>103</v>
-      </c>
-      <c r="F213">
-        <v>18</v>
-      </c>
-      <c r="G213">
-        <v>2494322.4</v>
-      </c>
-      <c r="H213">
-        <v>138573.4666666667</v>
-      </c>
-      <c r="I213">
-        <v>98</v>
-      </c>
-      <c r="J213">
-        <v>0</v>
-      </c>
-      <c r="K213">
-        <v>0</v>
-      </c>
-      <c r="L213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12">
-      <c r="A214" s="1">
-        <v>13239</v>
-      </c>
-      <c r="B214" t="s">
-        <v>11</v>
-      </c>
-      <c r="C214" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D214" t="s">
-        <v>13</v>
-      </c>
-      <c r="E214" t="s">
-        <v>104</v>
-      </c>
-      <c r="F214">
-        <v>18</v>
-      </c>
-      <c r="G214">
-        <v>2494322.4</v>
-      </c>
-      <c r="H214">
-        <v>138573.4666666667</v>
-      </c>
-      <c r="I214">
-        <v>98</v>
-      </c>
-      <c r="J214">
-        <v>0</v>
-      </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-      <c r="L214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="A215" s="1">
-        <v>13250</v>
-      </c>
-      <c r="B215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C215" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
-      </c>
-      <c r="E215" t="s">
-        <v>103</v>
-      </c>
-      <c r="F215">
-        <v>4</v>
-      </c>
-      <c r="G215">
-        <v>2494322.4</v>
-      </c>
-      <c r="H215">
-        <v>623580.6</v>
-      </c>
-      <c r="I215">
-        <v>98</v>
-      </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
-      <c r="K215">
-        <v>0</v>
-      </c>
-      <c r="L215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
-      <c r="A216" s="1">
-        <v>13251</v>
-      </c>
-      <c r="B216" t="s">
-        <v>11</v>
-      </c>
-      <c r="C216" s="2">
-        <v>42301</v>
-      </c>
-      <c r="D216" t="s">
-        <v>13</v>
-      </c>
-      <c r="E216" t="s">
-        <v>104</v>
-      </c>
-      <c r="F216">
-        <v>4</v>
-      </c>
-      <c r="G216">
-        <v>2494322.4</v>
-      </c>
-      <c r="H216">
-        <v>623580.6</v>
-      </c>
-      <c r="I216">
-        <v>98</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <v>0</v>
-      </c>
-      <c r="L216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12">
-      <c r="A217" s="1">
-        <v>13505</v>
-      </c>
-      <c r="B217" t="s">
-        <v>11</v>
-      </c>
-      <c r="C217" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D217" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" t="s">
-        <v>22</v>
-      </c>
-      <c r="F217">
-        <v>10</v>
-      </c>
-      <c r="G217">
-        <v>1247161.2</v>
-      </c>
-      <c r="H217">
-        <v>124716.12</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
-      </c>
-      <c r="J217">
-        <v>64</v>
-      </c>
-      <c r="K217">
-        <v>0</v>
-      </c>
-      <c r="L217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12">
-      <c r="A218" s="1">
-        <v>13515</v>
-      </c>
-      <c r="B218" t="s">
-        <v>11</v>
-      </c>
-      <c r="C218" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D218" t="s">
-        <v>13</v>
-      </c>
-      <c r="E218" t="s">
-        <v>22</v>
-      </c>
-      <c r="F218">
-        <v>10</v>
-      </c>
-      <c r="G218">
-        <v>1247161.2</v>
-      </c>
-      <c r="H218">
-        <v>124716.12</v>
-      </c>
-      <c r="I218">
-        <v>31</v>
-      </c>
-      <c r="J218">
-        <v>0</v>
-      </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-      <c r="L218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12">
-      <c r="A219" s="1">
-        <v>13521</v>
-      </c>
-      <c r="B219" t="s">
-        <v>11</v>
-      </c>
-      <c r="C219" s="2">
-        <v>42302</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="E219" t="s">
-        <v>22</v>
-      </c>
-      <c r="F219">
-        <v>2</v>
-      </c>
-      <c r="G219">
-        <v>1247161.2</v>
-      </c>
-      <c r="H219">
-        <v>623580.6000000001</v>
-      </c>
-      <c r="I219">
-        <v>31</v>
-      </c>
-      <c r="J219">
-        <v>0</v>
-      </c>
-      <c r="K219">
-        <v>0</v>
-      </c>
-      <c r="L219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12">
-      <c r="A220" s="1">
-        <v>13640</v>
-      </c>
-      <c r="B220" t="s">
-        <v>11</v>
-      </c>
-      <c r="C220" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D220" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" t="s">
-        <v>105</v>
-      </c>
-      <c r="F220">
-        <v>18</v>
-      </c>
-      <c r="G220">
-        <v>3248603.5</v>
-      </c>
-      <c r="H220">
-        <v>180477.9722222222</v>
-      </c>
-      <c r="I220">
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <v>124</v>
-      </c>
-      <c r="K220">
-        <v>0</v>
-      </c>
-      <c r="L220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12">
-      <c r="A221" s="1">
-        <v>13641</v>
-      </c>
-      <c r="B221" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D221" t="s">
-        <v>12</v>
-      </c>
-      <c r="E221" t="s">
-        <v>106</v>
-      </c>
-      <c r="F221">
-        <v>18</v>
-      </c>
-      <c r="G221">
-        <v>3248603.5</v>
-      </c>
-      <c r="H221">
-        <v>180477.9722222222</v>
-      </c>
-      <c r="I221">
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <v>124</v>
-      </c>
-      <c r="K221">
-        <v>0</v>
-      </c>
-      <c r="L221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
-      <c r="A222" s="1">
-        <v>13658</v>
-      </c>
-      <c r="B222" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D222" t="s">
-        <v>13</v>
-      </c>
-      <c r="E222" t="s">
-        <v>105</v>
-      </c>
-      <c r="F222">
-        <v>18</v>
-      </c>
-      <c r="G222">
-        <v>3248603.5</v>
-      </c>
-      <c r="H222">
-        <v>180477.9722222222</v>
-      </c>
-      <c r="I222">
-        <v>36</v>
-      </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
-      <c r="A223" s="1">
-        <v>13659</v>
-      </c>
-      <c r="B223" t="s">
-        <v>11</v>
-      </c>
-      <c r="C223" s="2">
-        <v>42309</v>
-      </c>
-      <c r="D223" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" t="s">
-        <v>106</v>
-      </c>
-      <c r="F223">
-        <v>18</v>
-      </c>
-      <c r="G223">
-        <v>3248603.5</v>
-      </c>
-      <c r="H223">
-        <v>180477.9722222222</v>
-      </c>
-      <c r="I223">
-        <v>36</v>
-      </c>
-      <c r="J223">
-        <v>0</v>
-      </c>
-      <c r="K223">
-        <v>0</v>
-      </c>
-      <c r="L223">
         <v>0</v>
       </c>
     </row>
